--- a/PropertyTycoon/src/main/java/resources/PropertyTycoonBoardData.xlsx
+++ b/PropertyTycoon/src/main/java/resources/PropertyTycoonBoardData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Desktop\SWE2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankee\Documents\UNIVERSITY\YEAR 2\SWE\PropertyTycoon\PropertyTycoon\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0837D3C-0F55-42D0-AA58-E50F46BFD7A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="8370" xr2:uid="{3AB37EF7-9957-4EAE-A376-EF9CBBC9245A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB37EF7-9957-4EAE-A376-EF9CBBC9245A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194933F7-920A-45E1-89BC-1AB0AFB7405E}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,7 +1841,7 @@
       <c r="B41" t="s">
         <v>28</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
